--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,14 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1차 세부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,10 +341,6 @@
   </si>
   <si>
     <t>3.2 Family 사이트 리스트 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">전 원 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,14 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.08.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.08.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEM01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -615,23 +595,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김현경, 김보경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예은, 박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 원</t>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>31D</t>
+  </si>
+  <si>
+    <t>6W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 소개 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 게시판 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1 회사 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2 서비스 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 학부모 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 관리자 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2. 회원관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3. 고객지원 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4. 게시판 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2. 관리자 개인 정보 변경 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7 공지사항 게시판 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 관리자 페이지 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 강의 및 교재 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 Q&amp;A 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 FAQ 게시판 HTML5+CSS3 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5 공지사항 게시판 HTML5+CSS3 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 학생 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.1.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -639,165 +693,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김보경, 신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현경, 박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>31D</t>
-  </si>
-  <si>
-    <t>6W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예은, 김보경, 김현경, 박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. 관리자 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 소개 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 게시판 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1 회사 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.2 서비스 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 학부모 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1. 관리자 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2. 회원관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3. 고객지원 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4. 게시판 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2. 관리자 개인 정보 변경 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7 공지사항 게시판 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 관리자 페이지 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 강의 및 교재 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현경, 김보경, 신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김보경, 신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현경, 신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박진권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.3 Q&amp;A 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.4 FAQ 게시판 HTML5+CSS3 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5 공지사항 게시판 HTML5+CSS3 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 학생 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오태훈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전 원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신예은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ver.1.1.3</t>
+    <t>2023.08.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +822,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1191,32 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1580,21 +1458,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1623,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1660,85 +1523,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,7 +1598,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1765,103 +1616,232 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1870,43 +1850,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1917,135 +1894,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2353,7 +2201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2368,7 +2216,7 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="H53" sqref="H53"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2391,10 +2239,10 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="118"/>
+      <c r="D2" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="75"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2403,10 +2251,10 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="119" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="118"/>
+      <c r="D3" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="75"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2415,10 +2263,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="119" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="118"/>
+      <c r="D4" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="75"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2427,10 +2275,10 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="118" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="118"/>
+      <c r="D5" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="75"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2439,245 +2287,245 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="118"/>
+      <c r="D6" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="75"/>
     </row>
     <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="118"/>
+      <c r="D7" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="75"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="82" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="82" t="s">
+      <c r="F10" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="102" t="s">
+      <c r="L10" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="117" t="s">
-        <v>163</v>
-      </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="117"/>
-      <c r="W10" s="117"/>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="117"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="117"/>
-      <c r="AN10" s="117"/>
-      <c r="AO10" s="117"/>
-      <c r="AP10" s="117"/>
-      <c r="AQ10" s="117"/>
-      <c r="AR10" s="117"/>
-      <c r="AS10" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT10" s="86"/>
-      <c r="AU10" s="86"/>
-      <c r="AV10" s="86"/>
-      <c r="AW10" s="86"/>
-      <c r="AX10" s="86"/>
-      <c r="AY10" s="86"/>
-      <c r="AZ10" s="86"/>
-      <c r="BA10" s="86"/>
-      <c r="BB10" s="86"/>
-      <c r="BC10" s="86"/>
-      <c r="BD10" s="86"/>
-      <c r="BE10" s="86"/>
-      <c r="BF10" s="86"/>
-      <c r="BG10" s="86"/>
-      <c r="BH10" s="86"/>
-      <c r="BI10" s="86"/>
-      <c r="BJ10" s="86"/>
-      <c r="BK10" s="86"/>
-      <c r="BL10" s="86"/>
-      <c r="BM10" s="86"/>
-      <c r="BN10" s="86"/>
-      <c r="BO10" s="86"/>
-      <c r="BP10" s="86"/>
-      <c r="BQ10" s="86"/>
-      <c r="BR10" s="86"/>
-      <c r="BS10" s="86"/>
-      <c r="BT10" s="86"/>
-      <c r="BU10" s="86"/>
-      <c r="BV10" s="86"/>
-      <c r="BW10" s="87"/>
+      <c r="N10" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="115"/>
+      <c r="AO10" s="115"/>
+      <c r="AP10" s="115"/>
+      <c r="AQ10" s="115"/>
+      <c r="AR10" s="115"/>
+      <c r="AS10" s="125" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT10" s="126"/>
+      <c r="AU10" s="126"/>
+      <c r="AV10" s="126"/>
+      <c r="AW10" s="126"/>
+      <c r="AX10" s="126"/>
+      <c r="AY10" s="126"/>
+      <c r="AZ10" s="126"/>
+      <c r="BA10" s="126"/>
+      <c r="BB10" s="126"/>
+      <c r="BC10" s="126"/>
+      <c r="BD10" s="126"/>
+      <c r="BE10" s="126"/>
+      <c r="BF10" s="126"/>
+      <c r="BG10" s="126"/>
+      <c r="BH10" s="126"/>
+      <c r="BI10" s="126"/>
+      <c r="BJ10" s="126"/>
+      <c r="BK10" s="126"/>
+      <c r="BL10" s="126"/>
+      <c r="BM10" s="126"/>
+      <c r="BN10" s="126"/>
+      <c r="BO10" s="126"/>
+      <c r="BP10" s="126"/>
+      <c r="BQ10" s="126"/>
+      <c r="BR10" s="126"/>
+      <c r="BS10" s="126"/>
+      <c r="BT10" s="126"/>
+      <c r="BU10" s="126"/>
+      <c r="BV10" s="126"/>
+      <c r="BW10" s="127"/>
     </row>
     <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="15" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="39" t="s">
+      <c r="N11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="101" t="s">
+      <c r="O11" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="101" t="s">
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+      <c r="T11" s="108"/>
+      <c r="U11" s="108"/>
+      <c r="V11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="101"/>
-      <c r="X11" s="101"/>
-      <c r="Y11" s="101"/>
-      <c r="Z11" s="101"/>
-      <c r="AA11" s="101"/>
-      <c r="AB11" s="101"/>
-      <c r="AC11" s="101" t="s">
+      <c r="W11" s="108"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="108"/>
+      <c r="AC11" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="101"/>
-      <c r="AF11" s="101"/>
-      <c r="AG11" s="101"/>
-      <c r="AH11" s="101"/>
-      <c r="AI11" s="101"/>
-      <c r="AJ11" s="101" t="s">
+      <c r="AD11" s="108"/>
+      <c r="AE11" s="108"/>
+      <c r="AF11" s="108"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="108"/>
+      <c r="AJ11" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="101"/>
-      <c r="AL11" s="101"/>
-      <c r="AM11" s="101"/>
-      <c r="AN11" s="101"/>
-      <c r="AO11" s="101"/>
-      <c r="AP11" s="101"/>
-      <c r="AQ11" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR11" s="101"/>
-      <c r="AS11" s="114" t="s">
+      <c r="AK11" s="108"/>
+      <c r="AL11" s="108"/>
+      <c r="AM11" s="108"/>
+      <c r="AN11" s="108"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="108"/>
+      <c r="AQ11" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR11" s="108"/>
+      <c r="AS11" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AT11" s="115"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="115"/>
-      <c r="AW11" s="116"/>
-      <c r="AX11" s="101" t="s">
+      <c r="AT11" s="110"/>
+      <c r="AU11" s="110"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="101"/>
-      <c r="AZ11" s="101"/>
-      <c r="BA11" s="101"/>
-      <c r="BB11" s="101"/>
-      <c r="BC11" s="101"/>
-      <c r="BD11" s="101"/>
-      <c r="BE11" s="101" t="s">
+      <c r="AY11" s="108"/>
+      <c r="AZ11" s="108"/>
+      <c r="BA11" s="108"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="108"/>
+      <c r="BE11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="101"/>
-      <c r="BG11" s="101"/>
-      <c r="BH11" s="101"/>
-      <c r="BI11" s="101"/>
-      <c r="BJ11" s="101"/>
-      <c r="BK11" s="101"/>
-      <c r="BL11" s="101" t="s">
+      <c r="BF11" s="108"/>
+      <c r="BG11" s="108"/>
+      <c r="BH11" s="108"/>
+      <c r="BI11" s="108"/>
+      <c r="BJ11" s="108"/>
+      <c r="BK11" s="108"/>
+      <c r="BL11" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="101"/>
-      <c r="BN11" s="101"/>
-      <c r="BO11" s="101"/>
-      <c r="BP11" s="101"/>
-      <c r="BQ11" s="101"/>
-      <c r="BR11" s="101"/>
-      <c r="BS11" s="101" t="s">
+      <c r="BM11" s="108"/>
+      <c r="BN11" s="108"/>
+      <c r="BO11" s="108"/>
+      <c r="BP11" s="108"/>
+      <c r="BQ11" s="108"/>
+      <c r="BR11" s="108"/>
+      <c r="BS11" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="101"/>
-      <c r="BU11" s="101"/>
-      <c r="BV11" s="101"/>
-      <c r="BW11" s="101"/>
+      <c r="BT11" s="108"/>
+      <c r="BU11" s="108"/>
+      <c r="BV11" s="108"/>
+      <c r="BW11" s="108"/>
     </row>
     <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="110"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="15" t="s">
+      <c r="B12" s="104"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
@@ -2764,13 +2612,13 @@
         <v>44</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="AS12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AU12" s="5" t="s">
         <v>17</v>
@@ -2857,1039 +2705,1039 @@
         <v>44</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="91" t="s">
+      <c r="B13" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="54" t="str">
+      <c r="F13" s="105"/>
+      <c r="G13" s="50" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
-      <c r="H13" s="55">
-        <v>1</v>
-      </c>
-      <c r="I13" s="56">
+      <c r="H13" s="51">
+        <v>1</v>
+      </c>
+      <c r="I13" s="52">
         <f t="shared" ref="I13:I42" si="1">K13-J13+1</f>
         <v>1</v>
       </c>
-      <c r="J13" s="57">
+      <c r="J13" s="53">
         <v>45127</v>
       </c>
-      <c r="K13" s="57">
+      <c r="K13" s="53">
         <v>45127</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>87</v>
+      <c r="L13" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="90"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="34" t="s">
+      <c r="B14" s="121"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="111"/>
-      <c r="G14" s="58" t="str">
+      <c r="F14" s="105"/>
+      <c r="G14" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H14" s="59">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="H14" s="55">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="41">
         <v>45128</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="41">
         <v>45128</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>74</v>
+      <c r="L14" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="98" t="s">
+      <c r="B15" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="111"/>
-      <c r="G15" s="60" t="str">
+      <c r="F15" s="105"/>
+      <c r="G15" s="56" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="57">
         <v>1</v>
       </c>
       <c r="I15" s="10">
         <f>K15-J15+1</f>
         <v>2</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="38">
         <v>45131</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="38">
         <v>45132</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="120"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="51" t="str">
+      <c r="F16" s="105"/>
+      <c r="G16" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <v>1</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="40">
         <v>45131</v>
       </c>
-      <c r="K16" s="44">
+      <c r="K16" s="40">
         <v>45132</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>156</v>
+      <c r="L16" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="17" t="s">
+      <c r="B17" s="120"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="51" t="str">
+      <c r="F17" s="105"/>
+      <c r="G17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="40">
         <v>45132</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="40">
         <v>45132</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>159</v>
+      <c r="L17" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="51" t="str">
+      <c r="B18" s="120"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="105"/>
+      <c r="G18" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <v>1</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="40">
         <v>45133</v>
       </c>
-      <c r="K18" s="44">
+      <c r="K18" s="40">
         <v>45134</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>156</v>
+      <c r="L18" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
     </row>
     <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="81"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="17" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="111"/>
-      <c r="G19" s="51" t="str">
+      <c r="F19" s="105"/>
+      <c r="G19" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="36">
         <v>1</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="40">
         <v>45133</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="40">
         <v>45134</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>156</v>
+      <c r="L19" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="17" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="111"/>
-      <c r="G20" s="51" t="str">
+      <c r="F20" s="105"/>
+      <c r="G20" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="36">
         <v>1</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="40">
         <v>45135</v>
       </c>
-      <c r="K20" s="44">
+      <c r="K20" s="40">
         <v>45135</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>158</v>
+      <c r="L20" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="90"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="37" t="s">
+      <c r="B21" s="121"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="111"/>
-      <c r="G21" s="52" t="str">
+      <c r="F21" s="105"/>
+      <c r="G21" s="48" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="58">
         <v>1</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="39">
         <v>45135</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="39">
         <v>45135</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>74</v>
+      <c r="L21" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="80" t="s">
+      <c r="B22" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="54" t="str">
+      <c r="F22" s="106"/>
+      <c r="G22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H22" s="55">
-        <v>1</v>
-      </c>
-      <c r="I22" s="56">
+      <c r="H22" s="51">
+        <v>1</v>
+      </c>
+      <c r="I22" s="52">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J22" s="53">
         <v>45138</v>
       </c>
-      <c r="K22" s="57">
+      <c r="K22" s="53">
         <v>45138</v>
       </c>
-      <c r="L22" s="19" t="s">
-        <v>159</v>
+      <c r="L22" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="32" t="s">
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="51" t="str">
+      <c r="F23" s="106"/>
+      <c r="G23" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="36">
         <v>1</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="40">
         <v>45138</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="40">
         <v>45138</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>159</v>
+      <c r="L23" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="32" t="s">
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="112"/>
-      <c r="G24" s="51" t="str">
+      <c r="F24" s="106"/>
+      <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="36">
         <v>1</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="40">
         <v>45139</v>
       </c>
-      <c r="K24" s="44">
+      <c r="K24" s="40">
         <v>45139</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>156</v>
+      <c r="L24" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AS24" s="6"/>
     </row>
     <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="32" t="s">
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="112"/>
-      <c r="G25" s="51" t="str">
+      <c r="F25" s="106"/>
+      <c r="G25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="36">
         <v>1</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="40">
         <v>45138</v>
       </c>
-      <c r="K25" s="44">
+      <c r="K25" s="40">
         <v>45138</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>159</v>
+      <c r="L25" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="32" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="112"/>
-      <c r="G26" s="51" t="str">
+      <c r="F26" s="106"/>
+      <c r="G26" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="36">
         <v>1</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="40">
         <v>45139</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="40">
         <v>45139</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>156</v>
+      <c r="L26" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AS26" s="6"/>
     </row>
     <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="36" t="s">
+      <c r="B27" s="121"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="113"/>
-      <c r="G27" s="58" t="str">
+      <c r="F27" s="107"/>
+      <c r="G27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H27" s="59">
-        <v>1</v>
-      </c>
-      <c r="I27" s="16">
+      <c r="H27" s="55">
+        <v>1</v>
+      </c>
+      <c r="I27" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="41">
         <v>45139</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="41">
         <v>45139</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>156</v>
+      <c r="L27" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AS27" s="6"/>
     </row>
     <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="60" t="str">
+      <c r="B28" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="133" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="56" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="57">
         <v>1</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="38">
         <v>45140</v>
       </c>
-      <c r="K28" s="42">
+      <c r="K28" s="38">
         <v>45142</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="81"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="58" t="str">
+      <c r="B29" s="120"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H29" s="59">
-        <v>1</v>
-      </c>
-      <c r="I29" s="16">
+      <c r="H29" s="55">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="41">
         <v>45140</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="41">
         <v>45142</v>
       </c>
-      <c r="L29" s="20" t="s">
-        <v>197</v>
+      <c r="L29" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
     </row>
     <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="81"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="60" t="str">
+      <c r="B30" s="120"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="132" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="56" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="57">
         <v>1</v>
       </c>
       <c r="I30" s="10">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="38">
         <v>45140</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="38">
         <v>45142</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="81"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="51" t="str">
+      <c r="B31" s="120"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="36">
         <v>1</v>
       </c>
       <c r="I31" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="40">
         <v>45140</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="40">
         <v>45142</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>153</v>
+      <c r="L31" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
     </row>
     <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="51" t="str">
+      <c r="B32" s="120"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="36">
         <v>1</v>
       </c>
       <c r="I32" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="40">
         <v>45140</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="40">
         <v>45142</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>152</v>
+      <c r="L32" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
     </row>
     <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="81"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="52" t="str">
+      <c r="B33" s="120"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="48" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="58">
         <v>1</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="39">
         <v>45140</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="39">
         <v>45142</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>152</v>
+      <c r="L33" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
     </row>
     <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="81"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="54" t="str">
+      <c r="B34" s="120"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="50" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H34" s="55">
-        <v>1</v>
-      </c>
-      <c r="I34" s="56">
+      <c r="H34" s="51">
+        <v>1</v>
+      </c>
+      <c r="I34" s="52">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J34" s="57">
+      <c r="J34" s="53">
         <v>45140</v>
       </c>
-      <c r="K34" s="57">
+      <c r="K34" s="53">
         <v>45142</v>
       </c>
-      <c r="L34" s="19" t="s">
-        <v>74</v>
+      <c r="L34" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
     </row>
     <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="81"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="52" t="str">
+      <c r="B35" s="120"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="48" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H35" s="62">
+      <c r="H35" s="58">
         <v>1</v>
       </c>
       <c r="I35" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="39">
         <v>45140</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="39">
         <v>45142</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>74</v>
+      <c r="L35" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
     </row>
     <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="98" t="s">
+      <c r="B36" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H36" s="70">
+        <v>1</v>
+      </c>
+      <c r="I36" s="71">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="72">
+        <v>45145</v>
+      </c>
+      <c r="K36" s="72">
+        <v>45145</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW36" s="6"/>
+    </row>
+    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="50" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H37" s="51">
+        <v>1</v>
+      </c>
+      <c r="I37" s="59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="60">
+        <v>45145</v>
+      </c>
+      <c r="K37" s="60">
+        <v>45145</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW37" s="6"/>
+    </row>
+    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H38" s="55">
+        <v>1</v>
+      </c>
+      <c r="I38" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J38" s="62">
+        <v>45145</v>
+      </c>
+      <c r="K38" s="62">
+        <v>45145</v>
+      </c>
+      <c r="L38" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW38" s="6"/>
+    </row>
+    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H39" s="57">
+        <v>1</v>
+      </c>
+      <c r="I39" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="64">
+        <v>45145</v>
+      </c>
+      <c r="K39" s="64">
+        <v>45145</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW39" s="6"/>
+    </row>
+    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H40" s="58">
+        <v>1</v>
+      </c>
+      <c r="I40" s="49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="65">
+        <v>45145</v>
+      </c>
+      <c r="K40" s="65">
+        <v>45145</v>
+      </c>
+      <c r="L40" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW40" s="6"/>
+    </row>
+    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="56" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H41" s="57">
+        <v>1</v>
+      </c>
+      <c r="I41" s="63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="64">
+        <v>45145</v>
+      </c>
+      <c r="K41" s="64">
+        <v>45145</v>
+      </c>
+      <c r="L41" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW41" s="6"/>
+    </row>
+    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H42" s="58">
+        <v>1</v>
+      </c>
+      <c r="I42" s="49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J42" s="65">
+        <v>45145</v>
+      </c>
+      <c r="K42" s="65">
+        <v>45145</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW42" s="6"/>
+    </row>
+    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="98" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="138" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="73" t="str">
+      <c r="E43" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="G43" s="50" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
       </c>
-      <c r="H36" s="74">
-        <v>1</v>
-      </c>
-      <c r="I36" s="75">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J36" s="76">
-        <v>45145</v>
-      </c>
-      <c r="K36" s="76">
-        <v>45145</v>
-      </c>
-      <c r="L36" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW36" s="6"/>
-    </row>
-    <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="99"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="88" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H37" s="55">
-        <v>1</v>
-      </c>
-      <c r="I37" s="63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J37" s="64">
-        <v>45145</v>
-      </c>
-      <c r="K37" s="64">
-        <v>45145</v>
-      </c>
-      <c r="L37" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW37" s="6"/>
-    </row>
-    <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="99"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H38" s="59">
-        <v>1</v>
-      </c>
-      <c r="I38" s="65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="66">
-        <v>45145</v>
-      </c>
-      <c r="K38" s="66">
-        <v>45145</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW38" s="6"/>
-    </row>
-    <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G39" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H39" s="61">
-        <v>1</v>
-      </c>
-      <c r="I39" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J39" s="68">
-        <v>45145</v>
-      </c>
-      <c r="K39" s="68">
-        <v>45145</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW39" s="6"/>
-    </row>
-    <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="99"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H40" s="62">
-        <v>1</v>
-      </c>
-      <c r="I40" s="53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="69">
-        <v>45145</v>
-      </c>
-      <c r="K40" s="69">
-        <v>45145</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW40" s="6"/>
-    </row>
-    <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="99"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G41" s="60" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H41" s="61">
-        <v>1</v>
-      </c>
-      <c r="I41" s="67">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J41" s="68">
-        <v>45145</v>
-      </c>
-      <c r="K41" s="68">
-        <v>45145</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW41" s="6"/>
-    </row>
-    <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" s="52" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H42" s="62">
-        <v>1</v>
-      </c>
-      <c r="I42" s="53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="69">
-        <v>45145</v>
-      </c>
-      <c r="K42" s="69">
-        <v>45145</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW42" s="6"/>
-    </row>
-    <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="136" t="s">
-        <v>122</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H43" s="55">
-        <v>1</v>
-      </c>
-      <c r="I43" s="63">
+      <c r="H43" s="51">
+        <v>1</v>
+      </c>
+      <c r="I43" s="59">
         <f>IF(OR(J43="",K43=""),"",K43-J43+1)</f>
         <v>3</v>
       </c>
-      <c r="J43" s="64">
+      <c r="J43" s="60">
         <v>45148</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="60">
         <v>45150</v>
       </c>
-      <c r="L43" s="19" t="s">
-        <v>154</v>
+      <c r="L43" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
       <c r="BD43" s="6"/>
     </row>
     <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="99"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="G44" s="51" t="str">
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="47" t="str">
         <f>IF(H44=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
-      <c r="H44" s="40">
+      <c r="H44" s="36">
         <v>1</v>
       </c>
       <c r="I44" s="7">
         <f t="shared" ref="I44:I57" si="2">IF(OR(J44="",K44=""),"",K44-J44+1)</f>
         <v>8</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="42">
         <v>45148</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="42">
         <v>45155</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>186</v>
+      <c r="L44" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
@@ -3901,64 +3749,64 @@
       <c r="BI44" s="6"/>
     </row>
     <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="51" t="str">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="47" t="str">
         <f t="shared" ref="G45:G80" si="3">IF(H45=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="36">
         <v>1</v>
       </c>
       <c r="I45" s="7">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="42">
         <v>45148</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="42">
         <v>45150</v>
       </c>
-      <c r="L45" s="13" t="s">
-        <v>74</v>
+      <c r="L45" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
       <c r="BD45" s="6"/>
     </row>
     <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="51" t="str">
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="36">
         <v>1</v>
       </c>
       <c r="I46" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="42">
         <v>45148</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="42">
         <v>45155</v>
       </c>
-      <c r="L46" s="13" t="s">
-        <v>187</v>
+      <c r="L46" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
@@ -3970,32 +3818,32 @@
       <c r="BI46" s="6"/>
     </row>
     <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="51" t="str">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="36">
         <v>1</v>
       </c>
       <c r="I47" s="7">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="42">
         <v>45148</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="42">
         <v>45155</v>
       </c>
-      <c r="L47" s="13" t="s">
-        <v>188</v>
+      <c r="L47" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
@@ -4007,32 +3855,32 @@
       <c r="BI47" s="6"/>
     </row>
     <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="99"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="52" t="str">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="48" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H48" s="62">
-        <v>1</v>
-      </c>
-      <c r="I48" s="53">
+      <c r="H48" s="58">
+        <v>1</v>
+      </c>
+      <c r="I48" s="49">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J48" s="69">
+      <c r="J48" s="65">
         <v>45148</v>
       </c>
-      <c r="K48" s="69">
+      <c r="K48" s="65">
         <v>45155</v>
       </c>
-      <c r="L48" s="14" t="s">
-        <v>188</v>
+      <c r="L48" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
@@ -4044,414 +3892,414 @@
       <c r="BI48" s="6"/>
     </row>
     <row r="49" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="133"/>
-      <c r="E49" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G49" s="73" t="str">
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="69" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H49" s="74">
-        <v>1</v>
-      </c>
-      <c r="I49" s="75">
+      <c r="H49" s="70">
+        <v>1</v>
+      </c>
+      <c r="I49" s="71">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J49" s="76">
+      <c r="J49" s="72">
         <v>45152</v>
       </c>
-      <c r="K49" s="76">
+      <c r="K49" s="72">
         <v>45154</v>
       </c>
-      <c r="L49" s="77" t="s">
-        <v>155</v>
+      <c r="L49" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
       <c r="BH49" s="6"/>
     </row>
     <row r="50" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="123" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G50" s="54" t="str">
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="50" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H50" s="55">
-        <v>1</v>
-      </c>
-      <c r="I50" s="63">
+      <c r="H50" s="51">
+        <v>1</v>
+      </c>
+      <c r="I50" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J50" s="64">
+      <c r="J50" s="60">
         <v>45150</v>
       </c>
-      <c r="K50" s="64">
+      <c r="K50" s="60">
         <v>45151</v>
       </c>
-      <c r="L50" s="19" t="s">
-        <v>153</v>
+      <c r="L50" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
     </row>
     <row r="51" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="99"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="51" t="str">
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="36">
         <v>1</v>
       </c>
       <c r="I51" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="42">
         <v>45150</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="42">
         <v>45151</v>
       </c>
-      <c r="L51" s="13" t="s">
-        <v>153</v>
+      <c r="L51" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
     </row>
     <row r="52" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="99"/>
-      <c r="C52" s="99"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="G52" s="58" t="str">
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G52" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H52" s="59">
-        <v>1</v>
-      </c>
-      <c r="I52" s="53">
+      <c r="H52" s="55">
+        <v>1</v>
+      </c>
+      <c r="I52" s="49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J52" s="64">
+      <c r="J52" s="60">
         <v>45159</v>
       </c>
-      <c r="K52" s="64">
+      <c r="K52" s="60">
         <v>45159</v>
       </c>
-      <c r="L52" s="20" t="s">
-        <v>156</v>
+      <c r="L52" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BM52" s="6"/>
     </row>
     <row r="53" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="99"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="120" t="s">
-        <v>166</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="60" t="str">
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G53" s="56" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H53" s="61">
-        <v>1</v>
-      </c>
-      <c r="I53" s="67">
+      <c r="H53" s="57">
+        <v>1</v>
+      </c>
+      <c r="I53" s="63">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J53" s="68">
+      <c r="J53" s="64">
         <v>45150</v>
       </c>
-      <c r="K53" s="68">
+      <c r="K53" s="64">
         <v>45150</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="BD53" s="6"/>
     </row>
     <row r="54" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="99"/>
-      <c r="C54" s="99"/>
-      <c r="D54" s="134"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="G54" s="54" t="str">
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="50" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H54" s="55">
-        <v>1</v>
-      </c>
-      <c r="I54" s="63">
+      <c r="H54" s="51">
+        <v>1</v>
+      </c>
+      <c r="I54" s="59">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J54" s="64">
+      <c r="J54" s="60">
         <v>45150</v>
       </c>
-      <c r="K54" s="64">
+      <c r="K54" s="60">
         <v>45151</v>
       </c>
-      <c r="L54" s="19" t="s">
-        <v>177</v>
+      <c r="L54" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
     </row>
     <row r="55" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="99"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="51" t="str">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H55" s="40">
+      <c r="H55" s="36">
         <v>1</v>
       </c>
       <c r="I55" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="42">
         <v>45151</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="42">
         <v>45152</v>
       </c>
-      <c r="L55" s="13" t="s">
-        <v>73</v>
+      <c r="L55" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
     </row>
     <row r="56" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="99"/>
-      <c r="C56" s="99"/>
-      <c r="D56" s="134"/>
-      <c r="E56" s="121"/>
-      <c r="F56" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="51" t="str">
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G56" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H56" s="40">
+      <c r="H56" s="36">
         <v>1</v>
       </c>
       <c r="I56" s="7">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="J56" s="46">
+      <c r="J56" s="42">
         <v>45153</v>
       </c>
-      <c r="K56" s="46">
+      <c r="K56" s="42">
         <v>45154</v>
       </c>
-      <c r="L56" s="13" t="s">
-        <v>73</v>
+      <c r="L56" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
     </row>
     <row r="57" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="134"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="52" t="str">
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" s="48" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H57" s="62">
-        <v>1</v>
-      </c>
-      <c r="I57" s="53">
+      <c r="H57" s="58">
+        <v>1</v>
+      </c>
+      <c r="I57" s="49">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J57" s="69">
+      <c r="J57" s="65">
         <v>45151</v>
       </c>
-      <c r="K57" s="69">
+      <c r="K57" s="65">
         <v>45153</v>
       </c>
-      <c r="L57" s="14" t="s">
-        <v>73</v>
+      <c r="L57" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE57" s="6"/>
       <c r="BF57" s="6"/>
       <c r="BG57" s="6"/>
     </row>
     <row r="58" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="60" t="str">
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="56" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H58" s="61">
-        <v>1</v>
-      </c>
-      <c r="I58" s="70">
+      <c r="H58" s="57">
+        <v>1</v>
+      </c>
+      <c r="I58" s="66">
         <f>IF(OR(J58="",K58=""),"",K58-J58+1)</f>
         <v>2</v>
       </c>
-      <c r="J58" s="68">
+      <c r="J58" s="64">
         <v>45154</v>
       </c>
-      <c r="K58" s="68">
+      <c r="K58" s="64">
         <v>45155</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
     </row>
     <row r="59" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="58" t="str">
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="G59" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H59" s="72">
-        <v>1</v>
-      </c>
-      <c r="I59" s="65">
+      <c r="H59" s="68">
+        <v>1</v>
+      </c>
+      <c r="I59" s="61">
         <f t="shared" ref="I59:I80" si="4">IF(OR(J59="",K59=""),"",K59-J59+1)</f>
         <v>2</v>
       </c>
-      <c r="J59" s="71">
+      <c r="J59" s="67">
         <v>45154</v>
       </c>
-      <c r="K59" s="71">
+      <c r="K59" s="67">
         <v>45155</v>
       </c>
-      <c r="L59" s="20" t="s">
-        <v>182</v>
+      <c r="L59" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
     </row>
     <row r="60" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="48" t="s">
-        <v>184</v>
-      </c>
-      <c r="G60" s="52" t="str">
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="G60" s="48" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H60" s="62">
-        <v>1</v>
-      </c>
-      <c r="I60" s="53">
+      <c r="H60" s="58">
+        <v>1</v>
+      </c>
+      <c r="I60" s="49">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J60" s="69">
+      <c r="J60" s="65">
         <v>45154</v>
       </c>
-      <c r="K60" s="69">
+      <c r="K60" s="65">
         <v>45155</v>
       </c>
-      <c r="L60" s="14" t="s">
-        <v>185</v>
+      <c r="L60" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
     </row>
     <row r="61" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="99"/>
-      <c r="C61" s="99"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="123" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="G61" s="60" t="str">
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="98"/>
+      <c r="E61" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="56" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H61" s="61">
-        <v>1</v>
-      </c>
-      <c r="I61" s="67">
+      <c r="H61" s="57">
+        <v>1</v>
+      </c>
+      <c r="I61" s="63">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J61" s="68">
+      <c r="J61" s="64">
         <v>45152</v>
       </c>
-      <c r="K61" s="68">
+      <c r="K61" s="64">
         <v>45155</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="BF61" s="6"/>
       <c r="BG61" s="6"/>
@@ -4459,32 +4307,32 @@
       <c r="BI61" s="6"/>
     </row>
     <row r="62" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="G62" s="51" t="str">
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H62" s="55">
-        <v>1</v>
-      </c>
-      <c r="I62" s="63">
+      <c r="H62" s="51">
+        <v>1</v>
+      </c>
+      <c r="I62" s="59">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J62" s="64">
+      <c r="J62" s="60">
         <v>45152</v>
       </c>
-      <c r="K62" s="64">
+      <c r="K62" s="60">
         <v>45155</v>
       </c>
-      <c r="L62" s="19" t="s">
-        <v>194</v>
+      <c r="L62" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
@@ -4492,32 +4340,32 @@
       <c r="BI62" s="6"/>
     </row>
     <row r="63" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="133"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="G63" s="51" t="str">
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H63" s="55">
+      <c r="H63" s="51">
         <v>1</v>
       </c>
       <c r="I63" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J63" s="46">
+      <c r="J63" s="42">
         <v>45152</v>
       </c>
-      <c r="K63" s="46">
+      <c r="K63" s="42">
         <v>45155</v>
       </c>
-      <c r="L63" s="13" t="s">
-        <v>157</v>
+      <c r="L63" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BF63" s="6"/>
       <c r="BG63" s="6"/>
@@ -4525,32 +4373,32 @@
       <c r="BI63" s="6"/>
     </row>
     <row r="64" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="G64" s="51" t="str">
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H64" s="55">
+      <c r="H64" s="51">
         <v>1</v>
       </c>
       <c r="I64" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J64" s="46">
+      <c r="J64" s="42">
         <v>45152</v>
       </c>
-      <c r="K64" s="46">
+      <c r="K64" s="42">
         <v>45155</v>
       </c>
-      <c r="L64" s="13" t="s">
-        <v>157</v>
+      <c r="L64" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BF64" s="6"/>
       <c r="BG64" s="6"/>
@@ -4558,32 +4406,32 @@
       <c r="BI64" s="6"/>
     </row>
     <row r="65" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="99"/>
-      <c r="C65" s="99"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="52" t="str">
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="48" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H65" s="78">
-        <v>1</v>
-      </c>
-      <c r="I65" s="53">
+      <c r="H65" s="73">
+        <v>1</v>
+      </c>
+      <c r="I65" s="49">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J65" s="69">
+      <c r="J65" s="65">
         <v>45152</v>
       </c>
-      <c r="K65" s="69">
+      <c r="K65" s="65">
         <v>45155</v>
       </c>
-      <c r="L65" s="14" t="s">
-        <v>189</v>
+      <c r="L65" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BF65" s="6"/>
       <c r="BG65" s="6"/>
@@ -4591,36 +4439,36 @@
       <c r="BI65" s="6"/>
     </row>
     <row r="66" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="99"/>
-      <c r="D66" s="129" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="126" t="s">
-        <v>123</v>
-      </c>
-      <c r="F66" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="54" t="str">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="50" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H66" s="55">
-        <v>1</v>
-      </c>
-      <c r="I66" s="63">
+      <c r="H66" s="51">
+        <v>1</v>
+      </c>
+      <c r="I66" s="59">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J66" s="64">
+      <c r="J66" s="60">
         <v>45150</v>
       </c>
-      <c r="K66" s="64">
+      <c r="K66" s="60">
         <v>45155</v>
       </c>
-      <c r="L66" s="19" t="s">
-        <v>195</v>
+      <c r="L66" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE66" s="6"/>
       <c r="BF66" s="6"/>
@@ -4629,96 +4477,96 @@
       <c r="BI66" s="6"/>
     </row>
     <row r="67" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="51" t="str">
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G67" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H67" s="40">
+      <c r="H67" s="36">
         <v>1</v>
       </c>
       <c r="I67" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J67" s="46">
+      <c r="J67" s="42">
         <v>45150</v>
       </c>
-      <c r="K67" s="46">
+      <c r="K67" s="42">
         <v>45153</v>
       </c>
-      <c r="L67" s="13" t="s">
-        <v>153</v>
+      <c r="L67" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE67" s="6"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
     </row>
     <row r="68" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="99"/>
-      <c r="C68" s="99"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="G68" s="51" t="str">
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G68" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="36">
         <v>1</v>
       </c>
       <c r="I68" s="7">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68" s="42">
         <v>45150</v>
       </c>
-      <c r="K68" s="46">
+      <c r="K68" s="42">
         <v>45153</v>
       </c>
-      <c r="L68" s="13" t="s">
-        <v>153</v>
+      <c r="L68" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE68" s="6"/>
       <c r="BF68" s="6"/>
       <c r="BG68" s="6"/>
     </row>
     <row r="69" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="99"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="127"/>
-      <c r="F69" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G69" s="51" t="str">
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H69" s="55">
+      <c r="H69" s="51">
         <v>1</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="42">
         <v>45150</v>
       </c>
-      <c r="K69" s="46">
+      <c r="K69" s="42">
         <v>45155</v>
       </c>
-      <c r="L69" s="13" t="s">
-        <v>74</v>
+      <c r="L69" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE69" s="6"/>
       <c r="BF69" s="6"/>
@@ -4727,32 +4575,32 @@
       <c r="BI69" s="6"/>
     </row>
     <row r="70" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="99"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="127"/>
-      <c r="F70" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="51" t="str">
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H70" s="55">
+      <c r="H70" s="51">
         <v>1</v>
       </c>
       <c r="I70" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J70" s="46">
+      <c r="J70" s="42">
         <v>45150</v>
       </c>
-      <c r="K70" s="46">
+      <c r="K70" s="42">
         <v>45155</v>
       </c>
-      <c r="L70" s="13" t="s">
-        <v>157</v>
+      <c r="L70" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE70" s="6"/>
       <c r="BF70" s="6"/>
@@ -4761,32 +4609,32 @@
       <c r="BI70" s="6"/>
     </row>
     <row r="71" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="99"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="127"/>
-      <c r="F71" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="51" t="str">
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H71" s="55">
+      <c r="H71" s="51">
         <v>1</v>
       </c>
       <c r="I71" s="7">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J71" s="46">
+      <c r="J71" s="42">
         <v>45150</v>
       </c>
-      <c r="K71" s="46">
+      <c r="K71" s="42">
         <v>45155</v>
       </c>
-      <c r="L71" s="13" t="s">
-        <v>157</v>
+      <c r="L71" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE71" s="6"/>
       <c r="BF71" s="6"/>
@@ -4795,32 +4643,32 @@
       <c r="BI71" s="6"/>
     </row>
     <row r="72" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="99"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="127"/>
-      <c r="F72" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="G72" s="58" t="str">
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H72" s="55">
-        <v>1</v>
-      </c>
-      <c r="I72" s="65">
+      <c r="H72" s="51">
+        <v>1</v>
+      </c>
+      <c r="I72" s="61">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J72" s="66">
+      <c r="J72" s="62">
         <v>45150</v>
       </c>
-      <c r="K72" s="66">
+      <c r="K72" s="62">
         <v>45155</v>
       </c>
-      <c r="L72" s="20" t="s">
-        <v>180</v>
+      <c r="L72" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE72" s="6"/>
       <c r="BF72" s="6"/>
@@ -4829,32 +4677,32 @@
       <c r="BI72" s="6"/>
     </row>
     <row r="73" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="99"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="G73" s="58" t="str">
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="G73" s="54" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H73" s="55">
-        <v>1</v>
-      </c>
-      <c r="I73" s="65">
+      <c r="H73" s="51">
+        <v>1</v>
+      </c>
+      <c r="I73" s="61">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J73" s="66">
+      <c r="J73" s="62">
         <v>45150</v>
       </c>
-      <c r="K73" s="66">
+      <c r="K73" s="62">
         <v>45155</v>
       </c>
-      <c r="L73" s="20" t="s">
-        <v>181</v>
+      <c r="L73" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BE73" s="6"/>
       <c r="BF73" s="6"/>
@@ -4863,243 +4711,274 @@
       <c r="BI73" s="6"/>
     </row>
     <row r="74" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="123" t="s">
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="56" t="str">
+        <f t="shared" si="3"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H74" s="57">
+        <v>1</v>
+      </c>
+      <c r="I74" s="63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J74" s="64">
+        <v>45153</v>
+      </c>
+      <c r="K74" s="64">
+        <v>45153</v>
+      </c>
+      <c r="L74" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG74" s="6"/>
+    </row>
+    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="G75" s="54" t="str">
+        <f t="shared" si="3"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H75" s="55">
+        <v>1</v>
+      </c>
+      <c r="I75" s="61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J75" s="62">
+        <v>45153</v>
+      </c>
+      <c r="K75" s="62">
+        <v>45153</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG75" s="6"/>
+    </row>
+    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="96"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="93"/>
+      <c r="E76" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="69" t="str">
+        <f t="shared" si="3"/>
+        <v>진행완료</v>
+      </c>
+      <c r="H76" s="70">
+        <v>1</v>
+      </c>
+      <c r="I76" s="71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J76" s="72">
+        <v>45155</v>
+      </c>
+      <c r="K76" s="72">
+        <v>45155</v>
+      </c>
+      <c r="L76" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BI76" s="6"/>
+    </row>
+    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="D77" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="G74" s="60" t="str">
+      <c r="E77" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="50" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H74" s="61">
-        <v>1</v>
-      </c>
-      <c r="I74" s="67">
+      <c r="H77" s="51">
+        <v>1</v>
+      </c>
+      <c r="I77" s="59">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J74" s="68">
-        <v>45153</v>
-      </c>
-      <c r="K74" s="68">
-        <v>45153</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG74" s="6"/>
-    </row>
-    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="99"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="130"/>
-      <c r="E75" s="125"/>
-      <c r="F75" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="G75" s="58" t="str">
+      <c r="J77" s="60">
+        <v>45159</v>
+      </c>
+      <c r="K77" s="60">
+        <v>45159</v>
+      </c>
+      <c r="L77" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM77" s="6"/>
+    </row>
+    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H75" s="59">
-        <v>1</v>
-      </c>
-      <c r="I75" s="65">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J75" s="66">
-        <v>45153</v>
-      </c>
-      <c r="K75" s="66">
-        <v>45153</v>
-      </c>
-      <c r="L75" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG75" s="6"/>
-    </row>
-    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F76" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" s="73" t="str">
-        <f t="shared" si="3"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H76" s="74">
-        <v>1</v>
-      </c>
-      <c r="I76" s="75">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J76" s="76">
-        <v>45155</v>
-      </c>
-      <c r="K76" s="76">
-        <v>45155</v>
-      </c>
-      <c r="L76" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="BI76" s="6"/>
-    </row>
-    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="123" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G77" s="54" t="str">
-        <f t="shared" si="3"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H77" s="55">
-        <v>1</v>
-      </c>
-      <c r="I77" s="63">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J77" s="64">
-        <v>45159</v>
-      </c>
-      <c r="K77" s="64">
-        <v>45159</v>
-      </c>
-      <c r="L77" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="BM77" s="6"/>
-    </row>
-    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="121"/>
-      <c r="C78" s="121"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="F78" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="G78" s="51" t="str">
-        <f t="shared" si="3"/>
-        <v>진행완료</v>
-      </c>
-      <c r="H78" s="55">
+      <c r="H78" s="51">
         <v>1</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J78" s="64">
+      <c r="J78" s="60">
         <v>45159</v>
       </c>
-      <c r="K78" s="64">
+      <c r="K78" s="60">
         <v>45159</v>
       </c>
-      <c r="L78" s="13" t="s">
-        <v>156</v>
+      <c r="L78" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BM78" s="6"/>
     </row>
     <row r="79" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="121"/>
-      <c r="C79" s="121"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="51" t="str">
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="G79" s="47" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H79" s="55">
+      <c r="H79" s="51">
         <v>1</v>
       </c>
       <c r="I79" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J79" s="64">
+      <c r="J79" s="60">
         <v>45159</v>
       </c>
-      <c r="K79" s="64">
+      <c r="K79" s="60">
         <v>45159</v>
       </c>
-      <c r="L79" s="13" t="s">
-        <v>156</v>
+      <c r="L79" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BM79" s="6"/>
     </row>
     <row r="80" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="122"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="125"/>
-      <c r="E80" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="G80" s="52" t="str">
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G80" s="48" t="str">
         <f t="shared" si="3"/>
         <v>진행완료</v>
       </c>
-      <c r="H80" s="62">
-        <v>1</v>
-      </c>
-      <c r="I80" s="53">
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="49">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J80" s="69">
+      <c r="J80" s="65">
         <v>45159</v>
       </c>
-      <c r="K80" s="69">
+      <c r="K80" s="65">
         <v>45159</v>
       </c>
-      <c r="L80" s="14" t="s">
-        <v>156</v>
+      <c r="L80" s="12" t="s">
+        <v>171</v>
       </c>
       <c r="BM80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="AS10:BW10"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="BS11:BW11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
@@ -5116,45 +4995,14 @@
     <mergeCell ref="E43:E48"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E58:E60"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="AS10:BW10"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="BS11:BW11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="176">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>고객 요구 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -625,67 +621,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5.2 서비스 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1 학부모 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1. 관리자 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2. 회원관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3. 고객지원 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-4. 게시판 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2. 관리자 개인 정보 변경 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7 공지사항 게시판 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 관리자 페이지 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3 Q&amp;A 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4 FAQ 게시판 HTML5+CSS3 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5 공지사항 게시판 HTML5+CSS3 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2 학생 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5.1 회사 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.2 서비스 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1 학부모 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-1. 관리자 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2. 회원관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-3. 고객지원 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-4. 게시판 관리 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-2. 관리자 개인 정보 변경 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7 공지사항 게시판 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 관리자 페이지 JSP 스크립트릿 언어 작성 및 SQL DB 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 강의 및 교재 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.3 Q&amp;A 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.4 FAQ 게시판 HTML5+CSS3 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.5 공지사항 게시판 HTML5+CSS3 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2 학생 커뮤니티 게시판 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ver.1.1.3</t>
+    <t>5.3 학교 공부  페이지 HTML5+CSS3 JSP 스크립트 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -693,11 +697,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.08.23</t>
+    <t>2023.08.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2211,12 +2215,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BW80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4:E4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2240,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="75"/>
       <c r="H2" s="8"/>
@@ -2252,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="75"/>
       <c r="H3" s="8"/>
@@ -2276,7 +2280,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E5" s="75"/>
       <c r="H5" s="8"/>
@@ -2288,7 +2292,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E6" s="75"/>
     </row>
@@ -2297,14 +2301,14 @@
         <v>5</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E7" s="75"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="102" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C10" s="112" t="s">
         <v>6</v>
@@ -2316,7 +2320,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="112" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="112" t="s">
         <v>11</v>
@@ -2340,7 +2344,7 @@
         <v>12</v>
       </c>
       <c r="N10" s="115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O10" s="115"/>
       <c r="P10" s="115"/>
@@ -2373,7 +2377,7 @@
       <c r="AQ10" s="115"/>
       <c r="AR10" s="115"/>
       <c r="AS10" s="125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AT10" s="126"/>
       <c r="AU10" s="126"/>
@@ -2461,7 +2465,7 @@
       <c r="AO11" s="108"/>
       <c r="AP11" s="108"/>
       <c r="AQ11" s="108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR11" s="108"/>
       <c r="AS11" s="109" t="s">
@@ -2525,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>17</v>
@@ -2612,13 +2616,13 @@
         <v>44</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU12" s="5" t="s">
         <v>17</v>
@@ -2705,21 +2709,21 @@
         <v>44</v>
       </c>
       <c r="BW12" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="105"/>
       <c r="G13" s="50" t="str">
@@ -2740,7 +2744,7 @@
         <v>45127</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AG13" s="6"/>
     </row>
@@ -2749,7 +2753,7 @@
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
       <c r="E14" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="105"/>
       <c r="G14" s="54" t="str">
@@ -2770,22 +2774,22 @@
         <v>45128</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="119" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="94" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="105"/>
       <c r="G15" s="56" t="str">
@@ -2806,7 +2810,7 @@
         <v>45132</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
@@ -2816,7 +2820,7 @@
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
       <c r="E16" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="105"/>
       <c r="G16" s="47" t="str">
@@ -2837,7 +2841,7 @@
         <v>45132</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -2847,7 +2851,7 @@
       <c r="C17" s="95"/>
       <c r="D17" s="95"/>
       <c r="E17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F17" s="105"/>
       <c r="G17" s="47" t="str">
@@ -2868,7 +2872,7 @@
         <v>45132</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AL17" s="6"/>
     </row>
@@ -2877,7 +2881,7 @@
       <c r="C18" s="95"/>
       <c r="D18" s="95"/>
       <c r="E18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="105"/>
       <c r="G18" s="47" t="str">
@@ -2898,7 +2902,7 @@
         <v>45134</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
@@ -2908,7 +2912,7 @@
       <c r="C19" s="95"/>
       <c r="D19" s="95"/>
       <c r="E19" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F19" s="105"/>
       <c r="G19" s="47" t="str">
@@ -2929,7 +2933,7 @@
         <v>45134</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
@@ -2939,7 +2943,7 @@
       <c r="C20" s="95"/>
       <c r="D20" s="95"/>
       <c r="E20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="105"/>
       <c r="G20" s="47" t="str">
@@ -2960,7 +2964,7 @@
         <v>45135</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AO20" s="6"/>
     </row>
@@ -2969,7 +2973,7 @@
       <c r="C21" s="96"/>
       <c r="D21" s="96"/>
       <c r="E21" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="105"/>
       <c r="G21" s="48" t="str">
@@ -2990,22 +2994,22 @@
         <v>45135</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="119" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="106"/>
       <c r="G22" s="50" t="str">
@@ -3026,7 +3030,7 @@
         <v>45138</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AR22" s="6"/>
     </row>
@@ -3035,7 +3039,7 @@
       <c r="C23" s="120"/>
       <c r="D23" s="123"/>
       <c r="E23" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="106"/>
       <c r="G23" s="47" t="str">
@@ -3056,7 +3060,7 @@
         <v>45138</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AR23" s="6"/>
     </row>
@@ -3065,7 +3069,7 @@
       <c r="C24" s="120"/>
       <c r="D24" s="123"/>
       <c r="E24" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="106"/>
       <c r="G24" s="47" t="str">
@@ -3086,7 +3090,7 @@
         <v>45139</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AS24" s="6"/>
     </row>
@@ -3095,7 +3099,7 @@
       <c r="C25" s="120"/>
       <c r="D25" s="123"/>
       <c r="E25" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="106"/>
       <c r="G25" s="47" t="str">
@@ -3116,7 +3120,7 @@
         <v>45138</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AR25" s="6"/>
     </row>
@@ -3125,7 +3129,7 @@
       <c r="C26" s="120"/>
       <c r="D26" s="123"/>
       <c r="E26" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="106"/>
       <c r="G26" s="47" t="str">
@@ -3146,7 +3150,7 @@
         <v>45139</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AS26" s="6"/>
     </row>
@@ -3155,7 +3159,7 @@
       <c r="C27" s="121"/>
       <c r="D27" s="124"/>
       <c r="E27" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F27" s="107"/>
       <c r="G27" s="54" t="str">
@@ -3176,25 +3180,25 @@
         <v>45139</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AS27" s="6"/>
     </row>
     <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" s="56" t="str">
         <f t="shared" si="0"/>
@@ -3214,7 +3218,7 @@
         <v>45142</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
@@ -3226,7 +3230,7 @@
       <c r="D29" s="120"/>
       <c r="E29" s="132"/>
       <c r="F29" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G29" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3246,7 +3250,7 @@
         <v>45142</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
@@ -3257,10 +3261,10 @@
       <c r="C30" s="134"/>
       <c r="D30" s="120"/>
       <c r="E30" s="132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G30" s="56" t="str">
         <f t="shared" si="0"/>
@@ -3280,7 +3284,7 @@
         <v>45142</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
@@ -3292,7 +3296,7 @@
       <c r="D31" s="120"/>
       <c r="E31" s="132"/>
       <c r="F31" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="47" t="str">
         <f t="shared" si="0"/>
@@ -3312,10 +3316,10 @@
         <v>45142</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
@@ -3327,7 +3331,7 @@
       <c r="D32" s="120"/>
       <c r="E32" s="132"/>
       <c r="F32" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="47" t="str">
         <f t="shared" si="0"/>
@@ -3347,7 +3351,7 @@
         <v>45142</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
@@ -3359,7 +3363,7 @@
       <c r="D33" s="120"/>
       <c r="E33" s="132"/>
       <c r="F33" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G33" s="48" t="str">
         <f t="shared" si="0"/>
@@ -3379,7 +3383,7 @@
         <v>45142</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
@@ -3390,10 +3394,10 @@
       <c r="C34" s="134"/>
       <c r="D34" s="120"/>
       <c r="E34" s="79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="50" t="str">
         <f t="shared" si="0"/>
@@ -3413,7 +3417,7 @@
         <v>45142</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
@@ -3425,7 +3429,7 @@
       <c r="D35" s="121"/>
       <c r="E35" s="128"/>
       <c r="F35" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="48" t="str">
         <f t="shared" si="0"/>
@@ -3445,7 +3449,7 @@
         <v>45142</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
@@ -3453,19 +3457,19 @@
     </row>
     <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="E36" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>88</v>
-      </c>
       <c r="F36" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G36" s="69" t="str">
         <f t="shared" si="0"/>
@@ -3485,7 +3489,7 @@
         <v>45145</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW36" s="6"/>
     </row>
@@ -3494,10 +3498,10 @@
       <c r="C37" s="95"/>
       <c r="D37" s="82"/>
       <c r="E37" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="50" t="str">
         <f t="shared" si="0"/>
@@ -3517,7 +3521,7 @@
         <v>45145</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW37" s="6"/>
     </row>
@@ -3527,7 +3531,7 @@
       <c r="D38" s="82"/>
       <c r="E38" s="79"/>
       <c r="F38" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G38" s="54" t="str">
         <f t="shared" si="0"/>
@@ -3547,7 +3551,7 @@
         <v>45145</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW38" s="6"/>
     </row>
@@ -3556,10 +3560,10 @@
       <c r="C39" s="95"/>
       <c r="D39" s="82"/>
       <c r="E39" s="79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G39" s="56" t="str">
         <f t="shared" si="0"/>
@@ -3579,7 +3583,7 @@
         <v>45145</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW39" s="6"/>
     </row>
@@ -3589,7 +3593,7 @@
       <c r="D40" s="82"/>
       <c r="E40" s="79"/>
       <c r="F40" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="48" t="str">
         <f t="shared" si="0"/>
@@ -3609,7 +3613,7 @@
         <v>45145</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW40" s="6"/>
     </row>
@@ -3618,10 +3622,10 @@
       <c r="C41" s="95"/>
       <c r="D41" s="82"/>
       <c r="E41" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="56" t="str">
         <f t="shared" si="0"/>
@@ -3641,7 +3645,7 @@
         <v>45145</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW41" s="6"/>
     </row>
@@ -3651,7 +3655,7 @@
       <c r="D42" s="83"/>
       <c r="E42" s="80"/>
       <c r="F42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G42" s="48" t="str">
         <f t="shared" si="0"/>
@@ -3671,7 +3675,7 @@
         <v>45145</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AW42" s="6"/>
     </row>
@@ -3679,13 +3683,13 @@
       <c r="B43" s="95"/>
       <c r="C43" s="95"/>
       <c r="D43" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E43" s="101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" s="50" t="str">
         <f t="shared" si="0"/>
@@ -3705,7 +3709,7 @@
         <v>45150</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB43" s="6"/>
       <c r="BC43" s="6"/>
@@ -3717,7 +3721,7 @@
       <c r="D44" s="98"/>
       <c r="E44" s="77"/>
       <c r="F44" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G44" s="47" t="str">
         <f>IF(H44=1, "진행완료", "진행중")</f>
@@ -3737,7 +3741,7 @@
         <v>45155</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB44" s="6"/>
       <c r="BC44" s="6"/>
@@ -3754,7 +3758,7 @@
       <c r="D45" s="98"/>
       <c r="E45" s="77"/>
       <c r="F45" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G45" s="47" t="str">
         <f t="shared" ref="G45:G80" si="3">IF(H45=1, "진행완료", "진행중")</f>
@@ -3774,7 +3778,7 @@
         <v>45150</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB45" s="6"/>
       <c r="BC45" s="6"/>
@@ -3786,7 +3790,7 @@
       <c r="D46" s="98"/>
       <c r="E46" s="77"/>
       <c r="F46" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G46" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3806,7 +3810,7 @@
         <v>45155</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB46" s="6"/>
       <c r="BC46" s="6"/>
@@ -3823,7 +3827,7 @@
       <c r="D47" s="98"/>
       <c r="E47" s="77"/>
       <c r="F47" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G47" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3843,7 +3847,7 @@
         <v>45155</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB47" s="6"/>
       <c r="BC47" s="6"/>
@@ -3860,7 +3864,7 @@
       <c r="D48" s="98"/>
       <c r="E48" s="78"/>
       <c r="F48" s="44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G48" s="48" t="str">
         <f t="shared" si="3"/>
@@ -3880,7 +3884,7 @@
         <v>45155</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BB48" s="6"/>
       <c r="BC48" s="6"/>
@@ -3896,10 +3900,10 @@
       <c r="C49" s="95"/>
       <c r="D49" s="98"/>
       <c r="E49" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" s="69" t="str">
         <f t="shared" si="3"/>
@@ -3919,7 +3923,7 @@
         <v>45154</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF49" s="6"/>
       <c r="BG49" s="6"/>
@@ -3930,10 +3934,10 @@
       <c r="C50" s="95"/>
       <c r="D50" s="98"/>
       <c r="E50" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G50" s="50" t="str">
         <f t="shared" si="3"/>
@@ -3953,7 +3957,7 @@
         <v>45151</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BD50" s="6"/>
       <c r="BE50" s="6"/>
@@ -3964,7 +3968,7 @@
       <c r="D51" s="98"/>
       <c r="E51" s="77"/>
       <c r="F51" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G51" s="47" t="str">
         <f t="shared" si="3"/>
@@ -3984,7 +3988,7 @@
         <v>45151</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BD51" s="6"/>
       <c r="BE51" s="6"/>
@@ -3995,7 +3999,7 @@
       <c r="D52" s="98"/>
       <c r="E52" s="77"/>
       <c r="F52" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G52" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4015,7 +4019,7 @@
         <v>45159</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BM52" s="6"/>
     </row>
@@ -4024,10 +4028,10 @@
       <c r="C53" s="95"/>
       <c r="D53" s="99"/>
       <c r="E53" s="84" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G53" s="56" t="str">
         <f t="shared" si="3"/>
@@ -4047,7 +4051,7 @@
         <v>45150</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BD53" s="6"/>
     </row>
@@ -4057,7 +4061,7 @@
       <c r="D54" s="99"/>
       <c r="E54" s="85"/>
       <c r="F54" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G54" s="50" t="str">
         <f t="shared" si="3"/>
@@ -4077,7 +4081,7 @@
         <v>45151</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BD54" s="6"/>
       <c r="BE54" s="6"/>
@@ -4088,7 +4092,7 @@
       <c r="D55" s="99"/>
       <c r="E55" s="85"/>
       <c r="F55" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G55" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4108,7 +4112,7 @@
         <v>45152</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE55" s="6"/>
       <c r="BF55" s="6"/>
@@ -4119,7 +4123,7 @@
       <c r="D56" s="99"/>
       <c r="E56" s="85"/>
       <c r="F56" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G56" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4139,7 +4143,7 @@
         <v>45154</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BG56" s="6"/>
       <c r="BH56" s="6"/>
@@ -4150,7 +4154,7 @@
       <c r="D57" s="99"/>
       <c r="E57" s="86"/>
       <c r="F57" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G57" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4170,7 +4174,7 @@
         <v>45153</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE57" s="6"/>
       <c r="BF57" s="6"/>
@@ -4181,10 +4185,10 @@
       <c r="C58" s="95"/>
       <c r="D58" s="98"/>
       <c r="E58" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G58" s="56" t="str">
         <f t="shared" si="3"/>
@@ -4204,7 +4208,7 @@
         <v>45155</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BH58" s="6"/>
       <c r="BI58" s="6"/>
@@ -4215,7 +4219,7 @@
       <c r="D59" s="98"/>
       <c r="E59" s="77"/>
       <c r="F59" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G59" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4235,7 +4239,7 @@
         <v>45155</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
@@ -4246,7 +4250,7 @@
       <c r="D60" s="98"/>
       <c r="E60" s="78"/>
       <c r="F60" s="44" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G60" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4266,7 +4270,7 @@
         <v>45155</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BH60" s="6"/>
       <c r="BI60" s="6"/>
@@ -4276,10 +4280,10 @@
       <c r="C61" s="95"/>
       <c r="D61" s="98"/>
       <c r="E61" s="76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G61" s="56" t="str">
         <f t="shared" si="3"/>
@@ -4299,7 +4303,7 @@
         <v>45155</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF61" s="6"/>
       <c r="BG61" s="6"/>
@@ -4312,7 +4316,7 @@
       <c r="D62" s="98"/>
       <c r="E62" s="77"/>
       <c r="F62" s="45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G62" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4332,7 +4336,7 @@
         <v>45155</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF62" s="6"/>
       <c r="BG62" s="6"/>
@@ -4345,7 +4349,7 @@
       <c r="D63" s="98"/>
       <c r="E63" s="77"/>
       <c r="F63" s="43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G63" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4365,7 +4369,7 @@
         <v>45155</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF63" s="6"/>
       <c r="BG63" s="6"/>
@@ -4378,7 +4382,7 @@
       <c r="D64" s="98"/>
       <c r="E64" s="77"/>
       <c r="F64" s="43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G64" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4398,20 +4402,20 @@
         <v>45155</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF64" s="6"/>
       <c r="BG64" s="6"/>
       <c r="BH64" s="6"/>
       <c r="BI64" s="6"/>
     </row>
-    <row r="65" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="95"/>
       <c r="C65" s="95"/>
       <c r="D65" s="100"/>
       <c r="E65" s="78"/>
       <c r="F65" s="44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G65" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4431,24 +4435,24 @@
         <v>45155</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BF65" s="6"/>
       <c r="BG65" s="6"/>
       <c r="BH65" s="6"/>
       <c r="BI65" s="6"/>
     </row>
-    <row r="66" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="95"/>
       <c r="C66" s="95"/>
       <c r="D66" s="91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66" s="50" t="str">
         <f t="shared" si="3"/>
@@ -4468,7 +4472,7 @@
         <v>45155</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE66" s="6"/>
       <c r="BF66" s="6"/>
@@ -4476,13 +4480,13 @@
       <c r="BH66" s="6"/>
       <c r="BI66" s="6"/>
     </row>
-    <row r="67" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="95"/>
       <c r="C67" s="95"/>
       <c r="D67" s="92"/>
       <c r="E67" s="89"/>
       <c r="F67" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G67" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4502,19 +4506,19 @@
         <v>45153</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE67" s="6"/>
       <c r="BF67" s="6"/>
       <c r="BG67" s="6"/>
     </row>
-    <row r="68" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="95"/>
       <c r="C68" s="95"/>
       <c r="D68" s="92"/>
       <c r="E68" s="89"/>
       <c r="F68" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G68" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4534,19 +4538,19 @@
         <v>45153</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE68" s="6"/>
       <c r="BF68" s="6"/>
       <c r="BG68" s="6"/>
     </row>
-    <row r="69" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="95"/>
       <c r="C69" s="95"/>
       <c r="D69" s="92"/>
       <c r="E69" s="89"/>
       <c r="F69" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G69" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4566,7 +4570,7 @@
         <v>45155</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE69" s="6"/>
       <c r="BF69" s="6"/>
@@ -4574,13 +4578,13 @@
       <c r="BH69" s="6"/>
       <c r="BI69" s="6"/>
     </row>
-    <row r="70" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="95"/>
       <c r="C70" s="95"/>
       <c r="D70" s="92"/>
       <c r="E70" s="89"/>
       <c r="F70" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G70" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4600,7 +4604,7 @@
         <v>45155</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE70" s="6"/>
       <c r="BF70" s="6"/>
@@ -4608,13 +4612,13 @@
       <c r="BH70" s="6"/>
       <c r="BI70" s="6"/>
     </row>
-    <row r="71" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="95"/>
       <c r="C71" s="95"/>
       <c r="D71" s="92"/>
       <c r="E71" s="89"/>
       <c r="F71" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G71" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4634,7 +4638,7 @@
         <v>45155</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE71" s="6"/>
       <c r="BF71" s="6"/>
@@ -4642,13 +4646,13 @@
       <c r="BH71" s="6"/>
       <c r="BI71" s="6"/>
     </row>
-    <row r="72" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="95"/>
       <c r="C72" s="95"/>
       <c r="D72" s="92"/>
       <c r="E72" s="89"/>
       <c r="F72" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G72" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4668,7 +4672,7 @@
         <v>45155</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE72" s="6"/>
       <c r="BF72" s="6"/>
@@ -4676,13 +4680,13 @@
       <c r="BH72" s="6"/>
       <c r="BI72" s="6"/>
     </row>
-    <row r="73" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="95"/>
       <c r="C73" s="95"/>
       <c r="D73" s="92"/>
       <c r="E73" s="90"/>
       <c r="F73" s="46" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G73" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4702,7 +4706,7 @@
         <v>45155</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BE73" s="6"/>
       <c r="BF73" s="6"/>
@@ -4710,15 +4714,15 @@
       <c r="BH73" s="6"/>
       <c r="BI73" s="6"/>
     </row>
-    <row r="74" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="95"/>
       <c r="C74" s="95"/>
       <c r="D74" s="92"/>
       <c r="E74" s="76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="G74" s="56" t="str">
         <f t="shared" si="3"/>
@@ -4738,17 +4742,17 @@
         <v>45153</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BG74" s="6"/>
     </row>
-    <row r="75" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="95"/>
       <c r="C75" s="95"/>
       <c r="D75" s="92"/>
       <c r="E75" s="78"/>
       <c r="F75" s="46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G75" s="54" t="str">
         <f t="shared" si="3"/>
@@ -4768,19 +4772,19 @@
         <v>45153</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BG75" s="6"/>
     </row>
-    <row r="76" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="96"/>
       <c r="C76" s="96"/>
       <c r="D76" s="93"/>
       <c r="E76" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" s="74" t="s">
         <v>135</v>
-      </c>
-      <c r="F76" s="74" t="s">
-        <v>136</v>
       </c>
       <c r="G76" s="69" t="str">
         <f t="shared" si="3"/>
@@ -4800,25 +4804,25 @@
         <v>45155</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BI76" s="6"/>
     </row>
-    <row r="77" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="84" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="E77" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E77" s="24" t="s">
+      <c r="F77" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>140</v>
       </c>
       <c r="G77" s="50" t="str">
         <f t="shared" si="3"/>
@@ -4829,28 +4833,29 @@
       </c>
       <c r="I77" s="59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" s="60">
         <v>45159</v>
       </c>
       <c r="K77" s="60">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BM77" s="6"/>
-    </row>
-    <row r="78" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BN77" s="6"/>
+    </row>
+    <row r="78" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="85"/>
       <c r="C78" s="85"/>
       <c r="D78" s="77"/>
       <c r="E78" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="F78" s="43" t="s">
-        <v>142</v>
       </c>
       <c r="G78" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4861,28 +4866,29 @@
       </c>
       <c r="I78" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" s="60">
         <v>45159</v>
       </c>
       <c r="K78" s="60">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BM78" s="6"/>
-    </row>
-    <row r="79" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BN78" s="6"/>
+    </row>
+    <row r="79" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="85"/>
       <c r="C79" s="85"/>
       <c r="D79" s="77"/>
       <c r="E79" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="G79" s="47" t="str">
         <f t="shared" si="3"/>
@@ -4893,28 +4899,29 @@
       </c>
       <c r="I79" s="7">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" s="60">
         <v>45159</v>
       </c>
       <c r="K79" s="60">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BM79" s="6"/>
-    </row>
-    <row r="80" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BN79" s="6"/>
+    </row>
+    <row r="80" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="86"/>
       <c r="C80" s="86"/>
       <c r="D80" s="78"/>
       <c r="E80" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="44" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" s="44" t="s">
-        <v>146</v>
       </c>
       <c r="G80" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4925,18 +4932,19 @@
       </c>
       <c r="I80" s="49">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" s="65">
         <v>45159</v>
       </c>
       <c r="K80" s="65">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="BM80" s="6"/>
+      <c r="BN80" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="63">

--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -681,31 +681,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5.1 회사 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>박진권</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.1 회사 소개 페이지 HTML5+CSS3 JSP 스크립트 작업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.3 학교 공부  페이지 HTML5+CSS3 JSP 스크립트 작업</t>
+    <t>2023.08.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3 교육 목표 소개  페이지 HTML5+CSS3 JSP 스크립트 작업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박진권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.08.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.07.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1716,9 +1716,135 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1728,33 +1854,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1771,15 +1870,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1797,107 +1887,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2205,7 +2205,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2220,7 +2220,7 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:E6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2243,10 +2243,10 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="75"/>
+      <c r="E2" s="113"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2255,10 +2255,10 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="113"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2267,10 +2267,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="75"/>
+      <c r="D4" s="114" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="113"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2279,10 +2279,10 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="75"/>
+      <c r="D5" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="113"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -2291,183 +2291,183 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="75"/>
+      <c r="D6" s="113" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="113"/>
     </row>
     <row r="7" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="75"/>
+      <c r="E7" s="113"/>
     </row>
     <row r="9" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65"/>
     <row r="10" spans="2:75" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="102" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="112" t="s">
+      <c r="B10" s="103" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="112" t="s">
+      <c r="K10" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="116" t="s">
+      <c r="L10" s="97" t="s">
         <v>49</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="115" t="s">
+      <c r="N10" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="115"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="115"/>
-      <c r="AN10" s="115"/>
-      <c r="AO10" s="115"/>
-      <c r="AP10" s="115"/>
-      <c r="AQ10" s="115"/>
-      <c r="AR10" s="115"/>
-      <c r="AS10" s="125" t="s">
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="112"/>
+      <c r="S10" s="112"/>
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
+      <c r="AH10" s="112"/>
+      <c r="AI10" s="112"/>
+      <c r="AJ10" s="112"/>
+      <c r="AK10" s="112"/>
+      <c r="AL10" s="112"/>
+      <c r="AM10" s="112"/>
+      <c r="AN10" s="112"/>
+      <c r="AO10" s="112"/>
+      <c r="AP10" s="112"/>
+      <c r="AQ10" s="112"/>
+      <c r="AR10" s="112"/>
+      <c r="AS10" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="AT10" s="126"/>
-      <c r="AU10" s="126"/>
-      <c r="AV10" s="126"/>
-      <c r="AW10" s="126"/>
-      <c r="AX10" s="126"/>
-      <c r="AY10" s="126"/>
-      <c r="AZ10" s="126"/>
-      <c r="BA10" s="126"/>
-      <c r="BB10" s="126"/>
-      <c r="BC10" s="126"/>
-      <c r="BD10" s="126"/>
-      <c r="BE10" s="126"/>
-      <c r="BF10" s="126"/>
-      <c r="BG10" s="126"/>
-      <c r="BH10" s="126"/>
-      <c r="BI10" s="126"/>
-      <c r="BJ10" s="126"/>
-      <c r="BK10" s="126"/>
-      <c r="BL10" s="126"/>
-      <c r="BM10" s="126"/>
-      <c r="BN10" s="126"/>
-      <c r="BO10" s="126"/>
-      <c r="BP10" s="126"/>
-      <c r="BQ10" s="126"/>
-      <c r="BR10" s="126"/>
-      <c r="BS10" s="126"/>
-      <c r="BT10" s="126"/>
-      <c r="BU10" s="126"/>
-      <c r="BV10" s="126"/>
-      <c r="BW10" s="127"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
+      <c r="AZ10" s="81"/>
+      <c r="BA10" s="81"/>
+      <c r="BB10" s="81"/>
+      <c r="BC10" s="81"/>
+      <c r="BD10" s="81"/>
+      <c r="BE10" s="81"/>
+      <c r="BF10" s="81"/>
+      <c r="BG10" s="81"/>
+      <c r="BH10" s="81"/>
+      <c r="BI10" s="81"/>
+      <c r="BJ10" s="81"/>
+      <c r="BK10" s="81"/>
+      <c r="BL10" s="81"/>
+      <c r="BM10" s="81"/>
+      <c r="BN10" s="81"/>
+      <c r="BO10" s="81"/>
+      <c r="BP10" s="81"/>
+      <c r="BQ10" s="81"/>
+      <c r="BR10" s="81"/>
+      <c r="BS10" s="81"/>
+      <c r="BT10" s="81"/>
+      <c r="BU10" s="81"/>
+      <c r="BV10" s="81"/>
+      <c r="BW10" s="82"/>
     </row>
     <row r="11" spans="2:75" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="103"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-      <c r="L11" s="117"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="98"/>
       <c r="M11" s="13" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="P11" s="108"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="108"/>
-      <c r="S11" s="108"/>
-      <c r="T11" s="108"/>
-      <c r="U11" s="108"/>
-      <c r="V11" s="108" t="s">
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="108"/>
-      <c r="X11" s="108"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="108"/>
-      <c r="AC11" s="108" t="s">
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="108"/>
-      <c r="AF11" s="108"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="108"/>
-      <c r="AJ11" s="108" t="s">
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="108"/>
-      <c r="AL11" s="108"/>
-      <c r="AM11" s="108"/>
-      <c r="AN11" s="108"/>
-      <c r="AO11" s="108"/>
-      <c r="AP11" s="108"/>
-      <c r="AQ11" s="108" t="s">
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="AR11" s="108"/>
+      <c r="AR11" s="96"/>
       <c r="AS11" s="109" t="s">
         <v>15</v>
       </c>
@@ -2475,53 +2475,53 @@
       <c r="AU11" s="110"/>
       <c r="AV11" s="110"/>
       <c r="AW11" s="111"/>
-      <c r="AX11" s="108" t="s">
+      <c r="AX11" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="AY11" s="108"/>
-      <c r="AZ11" s="108"/>
-      <c r="BA11" s="108"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="108"/>
-      <c r="BE11" s="108" t="s">
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="96"/>
+      <c r="BA11" s="96"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="BF11" s="108"/>
-      <c r="BG11" s="108"/>
-      <c r="BH11" s="108"/>
-      <c r="BI11" s="108"/>
-      <c r="BJ11" s="108"/>
-      <c r="BK11" s="108"/>
-      <c r="BL11" s="108" t="s">
+      <c r="BF11" s="96"/>
+      <c r="BG11" s="96"/>
+      <c r="BH11" s="96"/>
+      <c r="BI11" s="96"/>
+      <c r="BJ11" s="96"/>
+      <c r="BK11" s="96"/>
+      <c r="BL11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="BM11" s="108"/>
-      <c r="BN11" s="108"/>
-      <c r="BO11" s="108"/>
-      <c r="BP11" s="108"/>
-      <c r="BQ11" s="108"/>
-      <c r="BR11" s="108"/>
-      <c r="BS11" s="108" t="s">
+      <c r="BM11" s="96"/>
+      <c r="BN11" s="96"/>
+      <c r="BO11" s="96"/>
+      <c r="BP11" s="96"/>
+      <c r="BQ11" s="96"/>
+      <c r="BR11" s="96"/>
+      <c r="BS11" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="BT11" s="108"/>
-      <c r="BU11" s="108"/>
-      <c r="BV11" s="108"/>
-      <c r="BW11" s="108"/>
+      <c r="BT11" s="96"/>
+      <c r="BU11" s="96"/>
+      <c r="BV11" s="96"/>
+      <c r="BW11" s="96"/>
     </row>
     <row r="12" spans="2:75" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="104"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="118"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="99"/>
       <c r="M12" s="13" t="s">
         <v>14</v>
       </c>
@@ -2713,19 +2713,19 @@
       </c>
     </row>
     <row r="13" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="120" t="s">
+      <c r="B13" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="86" t="s">
         <v>52</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="50" t="str">
         <f t="shared" ref="G13:G43" si="0">IF(H13=1, "진행완료", "진행중")</f>
         <v>진행완료</v>
@@ -2749,13 +2749,13 @@
       <c r="AG13" s="6"/>
     </row>
     <row r="14" spans="2:75" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="121"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
       <c r="E14" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="105"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2779,19 +2779,19 @@
       <c r="AH14" s="6"/>
     </row>
     <row r="15" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="93" t="s">
         <v>70</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="105"/>
+      <c r="F15" s="106"/>
       <c r="G15" s="56" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2816,13 +2816,13 @@
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="2:75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="120"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="105"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2847,13 +2847,13 @@
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="120"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2877,13 +2877,13 @@
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="105"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2908,13 +2908,13 @@
       <c r="AN18" s="6"/>
     </row>
     <row r="19" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="105"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2939,13 +2939,13 @@
       <c r="AN19" s="6"/>
     </row>
     <row r="20" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="105"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2969,13 +2969,13 @@
       <c r="AO20" s="6"/>
     </row>
     <row r="21" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="121"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="105"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="48" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -2999,19 +2999,19 @@
       <c r="AO21" s="6"/>
     </row>
     <row r="22" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="119" t="s">
+      <c r="C22" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="100" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="106"/>
+      <c r="F22" s="107"/>
       <c r="G22" s="50" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3035,13 +3035,13 @@
       <c r="AR22" s="6"/>
     </row>
     <row r="23" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="123"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="106"/>
+      <c r="F23" s="107"/>
       <c r="G23" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3065,13 +3065,13 @@
       <c r="AR23" s="6"/>
     </row>
     <row r="24" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="123"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="106"/>
+      <c r="F24" s="107"/>
       <c r="G24" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3095,13 +3095,13 @@
       <c r="AS24" s="6"/>
     </row>
     <row r="25" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="123"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="106"/>
+      <c r="F25" s="107"/>
       <c r="G25" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3125,13 +3125,13 @@
       <c r="AR25" s="6"/>
     </row>
     <row r="26" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="123"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="106"/>
+      <c r="F26" s="107"/>
       <c r="G26" s="47" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3155,13 +3155,13 @@
       <c r="AS26" s="6"/>
     </row>
     <row r="27" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="121"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="124"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="107"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="54" t="str">
         <f t="shared" si="0"/>
         <v>진행완료</v>
@@ -3185,16 +3185,16 @@
       <c r="AS27" s="6"/>
     </row>
     <row r="28" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="133" t="s">
+      <c r="D28" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="131" t="s">
+      <c r="E28" s="88" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="29" t="s">
@@ -3225,10 +3225,10 @@
       <c r="AV28" s="6"/>
     </row>
     <row r="29" spans="2:48" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="120"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="132"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="89"/>
       <c r="F29" s="30" t="s">
         <v>77</v>
       </c>
@@ -3257,10 +3257,10 @@
       <c r="AV29" s="6"/>
     </row>
     <row r="30" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="132" t="s">
+      <c r="B30" s="76"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="89" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="29" t="s">
@@ -3291,10 +3291,10 @@
       <c r="AV30" s="6"/>
     </row>
     <row r="31" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="132"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="31" t="s">
         <v>79</v>
       </c>
@@ -3326,10 +3326,10 @@
       <c r="AV31" s="6"/>
     </row>
     <row r="32" spans="2:48" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="120"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="132"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="89"/>
       <c r="F32" s="22" t="s">
         <v>80</v>
       </c>
@@ -3358,10 +3358,10 @@
       <c r="AV32" s="6"/>
     </row>
     <row r="33" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="120"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="132"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="89"/>
       <c r="F33" s="23" t="s">
         <v>81</v>
       </c>
@@ -3390,10 +3390,10 @@
       <c r="AV33" s="6"/>
     </row>
     <row r="34" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="79" t="s">
+      <c r="B34" s="76"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="83" t="s">
         <v>75</v>
       </c>
       <c r="F34" s="25" t="s">
@@ -3424,10 +3424,10 @@
       <c r="AV34" s="6"/>
     </row>
     <row r="35" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="120"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="128"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="26" t="s">
         <v>83</v>
       </c>
@@ -3456,13 +3456,13 @@
       <c r="AV35" s="6"/>
     </row>
     <row r="36" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D36" s="81" t="s">
+      <c r="D36" s="133" t="s">
         <v>86</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -3494,10 +3494,10 @@
       <c r="AW36" s="6"/>
     </row>
     <row r="37" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="79" t="s">
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="83" t="s">
         <v>88</v>
       </c>
       <c r="F37" s="21" t="s">
@@ -3526,10 +3526,10 @@
       <c r="AW37" s="6"/>
     </row>
     <row r="38" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="79"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="23" t="s">
         <v>93</v>
       </c>
@@ -3556,10 +3556,10 @@
       <c r="AW38" s="6"/>
     </row>
     <row r="39" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="79" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="83" t="s">
         <v>89</v>
       </c>
       <c r="F39" s="21" t="s">
@@ -3588,10 +3588,10 @@
       <c r="AW39" s="6"/>
     </row>
     <row r="40" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="82"/>
-      <c r="E40" s="79"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="83"/>
       <c r="F40" s="17" t="s">
         <v>95</v>
       </c>
@@ -3618,10 +3618,10 @@
       <c r="AW40" s="6"/>
     </row>
     <row r="41" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="79" t="s">
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="83" t="s">
         <v>90</v>
       </c>
       <c r="F41" s="21" t="s">
@@ -3650,10 +3650,10 @@
       <c r="AW41" s="6"/>
     </row>
     <row r="42" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="80"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="132"/>
       <c r="F42" s="4" t="s">
         <v>97</v>
       </c>
@@ -3680,12 +3680,12 @@
       <c r="AW42" s="6"/>
     </row>
     <row r="43" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="97" t="s">
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="131" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="18" t="s">
@@ -3716,10 +3716,10 @@
       <c r="BD43" s="6"/>
     </row>
     <row r="44" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="77"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="119"/>
       <c r="F44" s="43" t="s">
         <v>123</v>
       </c>
@@ -3753,10 +3753,10 @@
       <c r="BI44" s="6"/>
     </row>
     <row r="45" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="77"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="119"/>
       <c r="F45" s="43" t="s">
         <v>122</v>
       </c>
@@ -3785,10 +3785,10 @@
       <c r="BD45" s="6"/>
     </row>
     <row r="46" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="77"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="119"/>
       <c r="F46" s="43" t="s">
         <v>121</v>
       </c>
@@ -3822,10 +3822,10 @@
       <c r="BI46" s="6"/>
     </row>
     <row r="47" spans="2:61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="77"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="43" t="s">
         <v>120</v>
       </c>
@@ -3859,10 +3859,10 @@
       <c r="BI47" s="6"/>
     </row>
     <row r="48" spans="2:61" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="78"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="120"/>
       <c r="F48" s="44" t="s">
         <v>119</v>
       </c>
@@ -3896,9 +3896,9 @@
       <c r="BI48" s="6"/>
     </row>
     <row r="49" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="98"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="128"/>
       <c r="E49" s="34" t="s">
         <v>110</v>
       </c>
@@ -3930,10 +3930,10 @@
       <c r="BH49" s="6"/>
     </row>
     <row r="50" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="76" t="s">
+      <c r="B50" s="94"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="118" t="s">
         <v>111</v>
       </c>
       <c r="F50" s="18" t="s">
@@ -3963,10 +3963,10 @@
       <c r="BE50" s="6"/>
     </row>
     <row r="51" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="77"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="43" t="s">
         <v>115</v>
       </c>
@@ -3994,10 +3994,10 @@
       <c r="BE51" s="6"/>
     </row>
     <row r="52" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="77"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="119"/>
       <c r="F52" s="46" t="s">
         <v>112</v>
       </c>
@@ -4024,10 +4024,10 @@
       <c r="BM52" s="6"/>
     </row>
     <row r="53" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="84" t="s">
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="115" t="s">
         <v>151</v>
       </c>
       <c r="F53" s="21" t="s">
@@ -4056,10 +4056,10 @@
       <c r="BD53" s="6"/>
     </row>
     <row r="54" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="85"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="116"/>
       <c r="F54" s="25" t="s">
         <v>160</v>
       </c>
@@ -4087,10 +4087,10 @@
       <c r="BE54" s="6"/>
     </row>
     <row r="55" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="85"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="116"/>
       <c r="F55" s="22" t="s">
         <v>157</v>
       </c>
@@ -4118,10 +4118,10 @@
       <c r="BF55" s="6"/>
     </row>
     <row r="56" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="85"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="116"/>
       <c r="F56" s="22" t="s">
         <v>158</v>
       </c>
@@ -4149,10 +4149,10 @@
       <c r="BH56" s="6"/>
     </row>
     <row r="57" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="86"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="117"/>
       <c r="F57" s="23" t="s">
         <v>159</v>
       </c>
@@ -4181,14 +4181,14 @@
       <c r="BG57" s="6"/>
     </row>
     <row r="58" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="77" t="s">
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="128"/>
+      <c r="E58" s="119" t="s">
         <v>152</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="56" t="str">
         <f t="shared" si="3"/>
@@ -4214,10 +4214,10 @@
       <c r="BI58" s="6"/>
     </row>
     <row r="59" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="77"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="119"/>
       <c r="F59" s="46" t="s">
         <v>154</v>
       </c>
@@ -4245,12 +4245,12 @@
       <c r="BI59" s="6"/>
     </row>
     <row r="60" spans="2:65" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="78"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="128"/>
+      <c r="E60" s="120"/>
       <c r="F60" s="44" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G60" s="48" t="str">
         <f t="shared" si="3"/>
@@ -4276,10 +4276,10 @@
       <c r="BI60" s="6"/>
     </row>
     <row r="61" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="76" t="s">
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="128"/>
+      <c r="E61" s="118" t="s">
         <v>153</v>
       </c>
       <c r="F61" s="45" t="s">
@@ -4311,10 +4311,10 @@
       <c r="BI61" s="6"/>
     </row>
     <row r="62" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="77"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="119"/>
       <c r="F62" s="45" t="s">
         <v>166</v>
       </c>
@@ -4344,10 +4344,10 @@
       <c r="BI62" s="6"/>
     </row>
     <row r="63" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="77"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="119"/>
       <c r="F63" s="43" t="s">
         <v>163</v>
       </c>
@@ -4377,10 +4377,10 @@
       <c r="BI63" s="6"/>
     </row>
     <row r="64" spans="2:65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="77"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="119"/>
       <c r="F64" s="43" t="s">
         <v>164</v>
       </c>
@@ -4410,10 +4410,10 @@
       <c r="BI64" s="6"/>
     </row>
     <row r="65" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="78"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="120"/>
       <c r="F65" s="44" t="s">
         <v>165</v>
       </c>
@@ -4443,12 +4443,12 @@
       <c r="BI65" s="6"/>
     </row>
     <row r="66" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="91" t="s">
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="121" t="s">
         <v>117</v>
       </c>
       <c r="F66" s="18" t="s">
@@ -4481,10 +4481,10 @@
       <c r="BI66" s="6"/>
     </row>
     <row r="67" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="89"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="122"/>
       <c r="F67" s="43" t="s">
         <v>126</v>
       </c>
@@ -4513,10 +4513,10 @@
       <c r="BG67" s="6"/>
     </row>
     <row r="68" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="89"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="122"/>
       <c r="F68" s="43" t="s">
         <v>127</v>
       </c>
@@ -4545,10 +4545,10 @@
       <c r="BG68" s="6"/>
     </row>
     <row r="69" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="89"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="122"/>
       <c r="F69" s="43" t="s">
         <v>128</v>
       </c>
@@ -4579,10 +4579,10 @@
       <c r="BI69" s="6"/>
     </row>
     <row r="70" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="89"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="122"/>
       <c r="F70" s="43" t="s">
         <v>129</v>
       </c>
@@ -4613,10 +4613,10 @@
       <c r="BI70" s="6"/>
     </row>
     <row r="71" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="89"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="122"/>
       <c r="F71" s="43" t="s">
         <v>130</v>
       </c>
@@ -4647,10 +4647,10 @@
       <c r="BI71" s="6"/>
     </row>
     <row r="72" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="89"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="122"/>
       <c r="F72" s="46" t="s">
         <v>161</v>
       </c>
@@ -4681,10 +4681,10 @@
       <c r="BI72" s="6"/>
     </row>
     <row r="73" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="90"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="123"/>
       <c r="F73" s="46" t="s">
         <v>162</v>
       </c>
@@ -4715,10 +4715,10 @@
       <c r="BI73" s="6"/>
     </row>
     <row r="74" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="76" t="s">
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="118" t="s">
         <v>131</v>
       </c>
       <c r="F74" s="18" t="s">
@@ -4747,10 +4747,10 @@
       <c r="BG74" s="6"/>
     </row>
     <row r="75" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="78"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="120"/>
       <c r="F75" s="46" t="s">
         <v>133</v>
       </c>
@@ -4777,9 +4777,9 @@
       <c r="BG75" s="6"/>
     </row>
     <row r="76" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="96"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="93"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="126"/>
       <c r="E76" s="34" t="s">
         <v>134</v>
       </c>
@@ -4809,13 +4809,13 @@
       <c r="BI76" s="6"/>
     </row>
     <row r="77" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="84" t="s">
+      <c r="B77" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="84" t="s">
+      <c r="C77" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="118" t="s">
         <v>137</v>
       </c>
       <c r="E77" s="24" t="s">
@@ -4848,9 +4848,9 @@
       <c r="BN77" s="6"/>
     </row>
     <row r="78" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="77"/>
+      <c r="B78" s="116"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="119"/>
       <c r="E78" s="19" t="s">
         <v>140</v>
       </c>
@@ -4881,9 +4881,9 @@
       <c r="BN78" s="6"/>
     </row>
     <row r="79" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="77"/>
+      <c r="B79" s="116"/>
+      <c r="C79" s="116"/>
+      <c r="D79" s="119"/>
       <c r="E79" s="19" t="s">
         <v>142</v>
       </c>
@@ -4908,15 +4908,15 @@
         <v>45160</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BM79" s="6"/>
       <c r="BN79" s="6"/>
     </row>
     <row r="80" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="86"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="78"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="120"/>
       <c r="E80" s="20" t="s">
         <v>144</v>
       </c>
@@ -4948,6 +4948,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E61:E65"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E66:E73"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="C36:C76"/>
+    <mergeCell ref="B36:B76"/>
+    <mergeCell ref="D43:D65"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="BL11:BR11"/>
+    <mergeCell ref="AJ11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="N10:AR10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AX11:BD11"/>
+    <mergeCell ref="BE11:BK11"/>
+    <mergeCell ref="AC11:AI11"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="C22:C27"/>
+    <mergeCell ref="D22:D27"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
@@ -4964,53 +5011,6 @@
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="BS11:BW11"/>
-    <mergeCell ref="AC11:AI11"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="C22:C27"/>
-    <mergeCell ref="D22:D27"/>
-    <mergeCell ref="D15:D21"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F13:F27"/>
-    <mergeCell ref="BL11:BR11"/>
-    <mergeCell ref="AJ11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="N10:AR10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AX11:BD11"/>
-    <mergeCell ref="BE11:BK11"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E66:E73"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="C36:C76"/>
-    <mergeCell ref="B36:B76"/>
-    <mergeCell ref="D43:D65"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="E61:E65"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E53:E57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
